--- a/SimulationStudyData/Dataset3_zsim.xlsx
+++ b/SimulationStudyData/Dataset3_zsim.xlsx
@@ -353,7 +353,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -373,7 +373,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -388,7 +388,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -408,7 +408,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -418,7 +418,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -428,7 +428,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -438,12 +438,12 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -483,12 +483,12 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -503,7 +503,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -513,7 +513,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -523,12 +523,12 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -538,17 +538,17 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -563,7 +563,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -573,7 +573,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -588,7 +588,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -613,12 +613,12 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -628,7 +628,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -638,7 +638,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -668,7 +668,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -683,12 +683,12 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -703,7 +703,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -718,12 +718,12 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -748,7 +748,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -768,12 +768,12 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -783,7 +783,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -823,17 +823,17 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -843,7 +843,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -858,7 +858,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -878,7 +878,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -888,7 +888,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -918,7 +918,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -943,7 +943,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -963,7 +963,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -978,7 +978,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -1003,12 +1003,12 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -1033,27 +1033,27 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -1063,22 +1063,22 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1118,12 +1118,12 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -1138,7 +1138,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -1148,7 +1148,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -1163,7 +1163,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -1193,17 +1193,17 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -1218,7 +1218,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -1233,7 +1233,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -1243,7 +1243,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -1258,17 +1258,17 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -1288,17 +1288,17 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -1308,17 +1308,17 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -1328,12 +1328,12 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -1343,7 +1343,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">

--- a/SimulationStudyData/Dataset3_zsim.xlsx
+++ b/SimulationStudyData/Dataset3_zsim.xlsx
@@ -353,7 +353,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -363,7 +363,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -378,7 +378,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -388,17 +388,17 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -423,12 +423,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -438,7 +438,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -453,12 +453,12 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -473,7 +473,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -483,7 +483,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -498,7 +498,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -513,17 +513,17 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -533,17 +533,17 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -563,7 +563,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -618,12 +618,12 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -643,7 +643,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -668,7 +668,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -683,7 +683,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -693,12 +693,12 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -718,7 +718,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -728,7 +728,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -753,7 +753,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -773,17 +773,17 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -793,7 +793,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -803,7 +803,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -818,7 +818,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -853,7 +853,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -863,12 +863,12 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -888,7 +888,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -913,7 +913,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -963,7 +963,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -973,7 +973,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -983,12 +983,12 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1003,12 +1003,12 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1023,7 +1023,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1038,7 +1038,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1053,32 +1053,32 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -1093,27 +1093,27 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -1123,12 +1123,12 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -1138,7 +1138,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -1148,7 +1148,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -1173,7 +1173,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -1183,7 +1183,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -1193,17 +1193,17 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -1233,12 +1233,12 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -1263,7 +1263,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -1278,12 +1278,12 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -1308,7 +1308,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -1328,7 +1328,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -1338,12 +1338,12 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
